--- a/01_document/design_DB/DB设计书.xlsx
+++ b/01_document/design_DB/DB设计书.xlsx
@@ -1,23 +1,335 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="T_TICKET_LOTTRRY" sheetId="1" r:id="rId1"/>
+    <sheet name="T_TICKET_PROFIT" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>--  组织表
+create or replace procedure proc_droptableifexists(p_table in varchar2) is v_count number(10);begin select count(*) into v_count from user_objects where object_name = upper(p_table);if v_count &gt; 0 then execute immediate 'drop table ' || p_table ||' cascade constraints';end if;end; 
+/
+exec proc_droptableifexists('T_BASE_ORG');
+drop procedure proc_droptableifexists;
+create table T_BASE_ORG(
+    ID CHAR(32) not null,   --  PK
+    ORG_FULL_NAME VARCHAR2(200) not null,   --  组织名称(全称)
+    ORG_SHORT_NAME VARCHAR2(100),   --  组织简称
+    ENGLISH_NAME VARCHAR2(200),   --  英文名称
+    ORG_NO VARCHAR2(50),   --  组织编号
+    PARENT_ORG_ID CHAR(32),   --  父级组织(FK -&gt; T_BASE_ORG.ID)
+    PHONE_NUM1 VARCHAR2(50),   --  联系电话1
+    PHONE_NUM2 VARCHAR2(50),   --  联系电话2
+    ZIP_CODE VARCHAR2(50),   --  组织邮编
+    FAX VARCHAR2(50),   --  传真
+    WEBSITE VARCHAR2(200),   --  网站
+    CONTACT_PERSON_ID CHAR(32),   --  联系人ID(FK -&gt; T_BASR_USER_ID)
+    HEADER_PERSON_ID CHAR(32),   --  负责人ID(FK -&gt; T_BASR_USER_ID)
+    LEGAL_PERSON_ID CHAR(32),   --  法人ID(FK -&gt; T_BASR_USER_ID)
+    TYPE NUMBER(1,0),   --  组织类别（1：路政；2：养护；3：指挥中心；9：其他）
+    NATURE NUMBER(1,0),   --  组织性质（0：单位；1：部门）
+    ORG_DESCRIPTION VARCHAR2(500),   --  组织描述
+    ADDRESS VARCHAR2(500),   --  地址
+    ESTABLISH_DATE DATE,   --  成立日期
+    SEQ NUMBER not null,   --  排序号
+    CREATED_USER_ID CHAR(32),   --  创建人
+    CREATED_USER_NAME VARCHAR2(100),   --  创建人姓名
+    CREATED_TIME DATE not null,   --  创建时间
+    MODIFIED_USER_ID CHAR(32),   --  变更人
+    MODIFIED_USER_NAME VARCHAR2(100),   --  变更人姓名
+    MODIFIED_TIME DATE,   --  变更时间
+    DELETED_USER_ID CHAR(32),   --  删除人
+    DELETED_USER_NAME VARCHAR2(100),   --  删除人姓名
+    DELETED_TIME DATE,   --  删除时间
+    DELETED_FLAG NUMBER(1,0) default '0' not null,   --  删除标记（0：未删除 1：已删除）,
+    Primary Key(ID)
+);</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>字段说明</t>
+  </si>
+  <si>
+    <t>是否索引</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(32)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>serialNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水单号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(32)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息中获取到的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_BASE_LOTTRRY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lotteryType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lotteryClass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvchar（50）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>足， 篮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvchar（50）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>betDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeTeam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主队</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guesTeam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客队</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liveScore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时比分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用小数来代替比分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>finalScore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终比分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终比分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>betType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩票类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩票种类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小，胜负</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小，胜负</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>odds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比较一倍的赔率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmbl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注的比率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如大0.5 小0.75</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未结算，1-已结算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +337,101 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="53"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,23 +439,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_DB_Customize 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +799,375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="1"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
+      <c r="B12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01_document/design_DB/DB设计书.xlsx
+++ b/01_document/design_DB/DB设计书.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T_TICKET_LOTTRRY" sheetId="1" r:id="rId1"/>
     <sheet name="T_TICKET_PROFIT" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="T_TICKET_ACCOUNT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>SQL</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>serialNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>流水单号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -157,171 +153,255 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>nvchar（50）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>足， 篮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvchar（50）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>betDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeTeam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主队</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guesTeam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客队</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liveScore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时比分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用小数来代替比分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>finalScore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终比分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终比分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>betType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩票类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩票种类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小，胜负</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小，胜负</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>odds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比较一倍的赔率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmbl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注的比率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如大0.5 小0.75</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未结算，1-已结算， -1 作废 一般不用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红单数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>redNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑单数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>invest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投注额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>走水单号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char（32）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>serialNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>lotteryClass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvchar（50）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>足， 篮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvchar（50）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>betDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下注时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>homeTeam</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主队</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>guesTeam</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客队</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>liveScore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>即时比分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用小数来代替比分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>finalScore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终比分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终比分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>betType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下注类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩票类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩票种类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小，胜负</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小，胜负</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>stake</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下注金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>odds</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赔率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>相比较一倍的赔率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmbl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下注的比率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如大0.5 小0.75</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>profit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-未结算，1-已结算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -479,15 +559,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -498,6 +572,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -800,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -811,59 +891,59 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="7" max="7" width="58.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="1"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -884,19 +964,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -904,41 +984,41 @@
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -946,124 +1026,144 @@
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
+      <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
-      <c r="B11" s="12" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="12" spans="1:8" ht="14.25">
-      <c r="B12" s="12" t="s">
-        <v>40</v>
+      <c r="B12" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1080,49 +1180,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1133,24 +1236,68 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1161,13 +1308,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>